--- a/CheckList_Registration.xlsx
+++ b/CheckList_Registration.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\QAcourse\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77BE0494-E93F-4008-891A-3346AD8CEF22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE4F9836-6306-4426-A6D0-24DB43D56B83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7668" yWindow="1092" windowWidth="15324" windowHeight="11220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="384" yWindow="384" windowWidth="10776" windowHeight="11220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -1009,8 +1009,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E92" sqref="E92"/>
+    <sheetView tabSelected="1" topLeftCell="B52" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D59" sqref="D59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1954,7 +1954,7 @@
         <v>4</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="59" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
